--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1225025.064595094</v>
+        <v>-1227885.878387386</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="H2" t="n">
-        <v>132.5162486773727</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>86.92876218224376</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.30825149961346</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>211.1183374510113</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.73350857495463</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>150.6611251780506</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>225.4031397636153</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>59.80127191868294</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>263.7138800015063</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>263.7138800015063</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>176.7988737656412</v>
       </c>
       <c r="V6" t="n">
-        <v>7.630541573939117</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>52.02661939791626</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>78.61849805672364</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>263.7138800015063</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>19.58151487468255</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658357</v>
+        <v>411.7416790765836</v>
       </c>
       <c r="H8" t="n">
         <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814974</v>
+        <v>73.1881841181501</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82315811850796</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4381829241309</v>
+        <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696363</v>
+        <v>49.81544106106536</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906597</v>
+        <v>23.79630926906616</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858444</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346714</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
-        <v>141.3664192522515</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3936111367397</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169637</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>86.56706950700365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>59.51448715413235</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>103.3868790795872</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>20.72279572932659</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>130.4114987159134</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>65.38324202937586</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>35.55160172423381</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>239.512404915627</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>18.70843787977307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>155.0136892434273</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167.9157198173758</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C2" t="n">
-        <v>167.9157198173758</v>
+        <v>788.477863438847</v>
       </c>
       <c r="D2" t="n">
-        <v>167.9157198173758</v>
+        <v>788.477863438847</v>
       </c>
       <c r="E2" t="n">
-        <v>167.9157198173758</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="F2" t="n">
-        <v>167.9157198173758</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="G2" t="n">
-        <v>154.9519070439314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>967.0486895189099</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>700.6710329517318</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>700.6710329517318</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>434.2933763845538</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y2" t="n">
-        <v>167.9157198173758</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>270.5156819514826</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>270.5156819514826</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1031.311831622577</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T3" t="n">
-        <v>1031.311831622577</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="U3" t="n">
-        <v>1031.311831622577</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="V3" t="n">
-        <v>796.1597233908342</v>
+        <v>692.9683756997523</v>
       </c>
       <c r="W3" t="n">
-        <v>541.9223666626326</v>
+        <v>438.7310189715507</v>
       </c>
       <c r="X3" t="n">
-        <v>541.9223666626326</v>
+        <v>438.7310189715507</v>
       </c>
       <c r="Y3" t="n">
-        <v>334.1620678976788</v>
+        <v>438.7310189715507</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>335.0192762988439</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>335.0192762988439</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>184.9026368865082</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.98954330411507</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.98954330411507</v>
       </c>
       <c r="G4" t="n">
         <v>21.0971104001205</v>
@@ -4489,13 +4489,13 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227048</v>
@@ -4516,22 +4516,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640391</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="U4" t="n">
-        <v>563.0088271968611</v>
+        <v>563.0088271968613</v>
       </c>
       <c r="V4" t="n">
-        <v>563.0088271968611</v>
+        <v>563.0088271968613</v>
       </c>
       <c r="W4" t="n">
-        <v>410.8258724715575</v>
+        <v>563.0088271968613</v>
       </c>
       <c r="X4" t="n">
-        <v>410.8258724715575</v>
+        <v>335.0192762988439</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.0332933280274</v>
+        <v>335.0192762988439</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.722550304491</v>
+        <v>367.7894056603333</v>
       </c>
       <c r="C5" t="n">
-        <v>255.722550304491</v>
+        <v>367.7894056603333</v>
       </c>
       <c r="D5" t="n">
-        <v>255.722550304491</v>
+        <v>367.7894056603333</v>
       </c>
       <c r="E5" t="n">
-        <v>255.722550304491</v>
+        <v>367.7894056603333</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552875</v>
+        <v>360.8439049111298</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012051</v>
+        <v>347.8800921376854</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012051</v>
+        <v>81.50243557050732</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012051</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515911</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388472</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388472</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388472</v>
+        <v>634.1670622275113</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716691</v>
+        <v>367.7894056603333</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>613.200219490875</v>
+        <v>641.1186907988871</v>
       </c>
       <c r="C6" t="n">
-        <v>613.200219490875</v>
+        <v>466.66566151776</v>
       </c>
       <c r="D6" t="n">
-        <v>464.2658098296238</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="E6" t="n">
-        <v>305.0283548241683</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F6" t="n">
         <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012051</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012051</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012051</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004806</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699348</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302315</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267554</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293604</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560903</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>876.2707990306299</v>
       </c>
       <c r="V6" t="n">
-        <v>1028.812018461362</v>
+        <v>641.1186907988871</v>
       </c>
       <c r="W6" t="n">
-        <v>1028.812018461362</v>
+        <v>641.1186907988871</v>
       </c>
       <c r="X6" t="n">
-        <v>820.9605182558289</v>
+        <v>641.1186907988871</v>
       </c>
       <c r="Y6" t="n">
-        <v>613.200219490875</v>
+        <v>641.1186907988871</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.2726599955957</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="C7" t="n">
-        <v>488.2726599955957</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>338.15602058326</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2429270008669</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012051</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4738,7 +4738,7 @@
         <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1002.303379200049</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1002.303379200049</v>
       </c>
       <c r="U7" t="n">
-        <v>975.4428957063039</v>
+        <v>1002.303379200049</v>
       </c>
       <c r="V7" t="n">
-        <v>975.4428957063039</v>
+        <v>747.6188909941621</v>
       </c>
       <c r="W7" t="n">
-        <v>709.0652391391259</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="X7" t="n">
-        <v>709.0652391391259</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="Y7" t="n">
-        <v>488.2726599955957</v>
+        <v>481.2412344269841</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1558.331881969947</v>
+        <v>1231.152142010378</v>
       </c>
       <c r="C8" t="n">
-        <v>1189.369365029535</v>
+        <v>862.1896250699665</v>
       </c>
       <c r="D8" t="n">
-        <v>831.103666422785</v>
+        <v>862.1896250699665</v>
       </c>
       <c r="E8" t="n">
-        <v>445.3154138245408</v>
+        <v>862.1896250699665</v>
       </c>
       <c r="F8" t="n">
-        <v>438.3699130753373</v>
+        <v>842.4103171157417</v>
       </c>
       <c r="G8" t="n">
-        <v>426.5096311797984</v>
+        <v>426.5096311797986</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970188</v>
+        <v>120.4438610970189</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181705</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229168</v>
+        <v>166.4989367229159</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677506</v>
+        <v>397.0601716677488</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937597</v>
+        <v>719.9935330937565</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.98855772158</v>
+        <v>1110.988557721575</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999425</v>
+        <v>1512.924098999418</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830562</v>
+        <v>1879.125171830553</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271729</v>
+        <v>2157.168314271719</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257591</v>
+        <v>2317.794388257579</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590853</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590853</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.820119590853</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="U8" t="n">
-        <v>2279.53410128933</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="V8" t="n">
-        <v>1948.471213945759</v>
+        <v>1994.75723224727</v>
       </c>
       <c r="W8" t="n">
-        <v>1948.471213945759</v>
+        <v>1994.75723224727</v>
       </c>
       <c r="X8" t="n">
-        <v>1948.471213945759</v>
+        <v>1621.29147398619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1558.331881969947</v>
+        <v>1231.152142010378</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784.7659619054696</v>
+        <v>886.8374030544448</v>
       </c>
       <c r="C9" t="n">
-        <v>610.3129326243426</v>
+        <v>712.3843737733179</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3785229630913</v>
+        <v>563.4499641120666</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1410679576358</v>
+        <v>404.2125091066111</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576358</v>
+        <v>257.6779511334961</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797258</v>
+        <v>120.871705755586</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117662</v>
+        <v>70.55307842117656</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181705</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977986</v>
+        <v>223.9894559067839</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412834</v>
+        <v>510.273441537124</v>
       </c>
       <c r="L9" t="n">
-        <v>782.6674818295443</v>
+        <v>782.6674818295379</v>
       </c>
       <c r="M9" t="n">
-        <v>1119.895347026209</v>
+        <v>1119.895347026201</v>
       </c>
       <c r="N9" t="n">
-        <v>1480.457275277546</v>
+        <v>1480.457275277537</v>
       </c>
       <c r="O9" t="n">
-        <v>1788.081202938435</v>
+        <v>1788.081202938424</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.643459247551</v>
+        <v>2015.64345924754</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590853</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590853</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160707</v>
+        <v>2188.151005160695</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661039</v>
+        <v>2188.151005160695</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505288</v>
+        <v>1960.054004004944</v>
       </c>
       <c r="V9" t="n">
-        <v>1622.830454624226</v>
+        <v>1724.901895773201</v>
       </c>
       <c r="W9" t="n">
-        <v>1368.593097896024</v>
+        <v>1470.664539045</v>
       </c>
       <c r="X9" t="n">
-        <v>1160.741597690492</v>
+        <v>1262.813038839467</v>
       </c>
       <c r="Y9" t="n">
-        <v>952.9812989255377</v>
+        <v>1055.052740074513</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>828.4466204959385</v>
+        <v>323.0889955010272</v>
       </c>
       <c r="C10" t="n">
-        <v>659.5104375680316</v>
+        <v>323.0889955010272</v>
       </c>
       <c r="D10" t="n">
-        <v>509.3937981556959</v>
+        <v>323.0889955010272</v>
       </c>
       <c r="E10" t="n">
-        <v>361.4807045733028</v>
+        <v>323.0889955010272</v>
       </c>
       <c r="F10" t="n">
-        <v>214.5907570753925</v>
+        <v>323.0889955010272</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181705</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181705</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181705</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909587</v>
+        <v>65.89540801909533</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736025</v>
+        <v>227.5779039736015</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632628</v>
+        <v>490.0022680632611</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794067</v>
+        <v>777.0810884794043</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620622</v>
+        <v>1062.768432620618</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257118</v>
+        <v>1310.630639257114</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.19889432512</v>
+        <v>1499.198894325116</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718234</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718234</v>
+        <v>1439.783439600084</v>
       </c>
       <c r="S10" t="n">
-        <v>1546.318699718234</v>
+        <v>1439.783439600084</v>
       </c>
       <c r="T10" t="n">
-        <v>1546.318699718234</v>
+        <v>1216.429428829625</v>
       </c>
       <c r="U10" t="n">
-        <v>1546.318699718234</v>
+        <v>927.3062973339073</v>
       </c>
       <c r="V10" t="n">
-        <v>1546.318699718234</v>
+        <v>672.6218091280205</v>
       </c>
       <c r="W10" t="n">
-        <v>1458.877215367726</v>
+        <v>383.2046390910598</v>
       </c>
       <c r="X10" t="n">
-        <v>1230.887664469708</v>
+        <v>323.0889955010272</v>
       </c>
       <c r="Y10" t="n">
-        <v>1010.095085326178</v>
+        <v>323.0889955010272</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622266</v>
+        <v>702.4944101284069</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343197</v>
+        <v>533.5582272005</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219839</v>
+        <v>383.4415877881643</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3439841395908</v>
+        <v>235.5284942057712</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057712</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1622.342175037155</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934014</v>
+        <v>1332.925005000194</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>1104.935454102177</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>884.1428749586466</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2223.337895748393</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2003.736430771334</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1714.661204115532</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1459.976715909645</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>942.5699949746667</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>721.7774158311365</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6373,7 +6373,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,25 +6476,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,19 +6546,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7126,10 +7126,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446527</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069109</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>119.3474860695327</v>
       </c>
       <c r="L9" t="n">
-        <v>245.4385214099453</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864749</v>
+        <v>27.38164655864783</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>43.0393686562965</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>180.5549891403834</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>164.2194056960387</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117128</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>148.7507642442408</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>265.8002026072644</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15.00954930701789</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>186.7544012944521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>104.7431111219901</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.67206947361714</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-6.699085858273953e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048895</v>
+        <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302514</v>
@@ -26338,13 +26338,13 @@
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194635</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194635</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
@@ -26353,7 +26353,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228513007</v>
+        <v>331437.5228512976</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.784342409</v>
+        <v>563905.7843424117</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201272</v>
+        <v>99845.14336201191</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569551</v>
+        <v>147342.6769569558</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.433054772358195e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>153791.3594476889</v>
+        <v>153791.3594476898</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756694</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756672</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756568</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
+        <v>17328.05961985007</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17328.05961985009</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17328.05961985008</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17328.05961985009</v>
+      </c>
+      <c r="P4" t="n">
         <v>17328.05961985006</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17328.05961985006</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985005</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17328.05961985008</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17328.05961985009</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543604</v>
+        <v>88290.79546543579</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-757142.711739979</v>
+        <v>-757502.7947556964</v>
       </c>
       <c r="C6" t="n">
-        <v>-126856.6716713491</v>
+        <v>-126856.6716713492</v>
       </c>
       <c r="D6" t="n">
-        <v>-388785.279544962</v>
+        <v>-388785.2795449596</v>
       </c>
       <c r="E6" t="n">
-        <v>-492757.5295928213</v>
+        <v>-492792.2675182598</v>
       </c>
       <c r="F6" t="n">
-        <v>71148.25474958765</v>
+        <v>71113.51682415184</v>
       </c>
       <c r="G6" t="n">
-        <v>71148.25474958782</v>
+        <v>71113.5168241519</v>
       </c>
       <c r="H6" t="n">
-        <v>71148.25474958753</v>
+        <v>71113.51682415197</v>
       </c>
       <c r="I6" t="n">
-        <v>71148.25474958787</v>
+        <v>71113.51682415197</v>
       </c>
       <c r="J6" t="n">
-        <v>2149.100330473564</v>
+        <v>2114.362405037827</v>
       </c>
       <c r="K6" t="n">
-        <v>71148.25474958777</v>
+        <v>71113.51682415185</v>
       </c>
       <c r="L6" t="n">
-        <v>-35602.92061631459</v>
+        <v>-35602.92061631384</v>
       </c>
       <c r="M6" t="n">
-        <v>-83100.45421125692</v>
+        <v>-83100.45421125781</v>
       </c>
       <c r="N6" t="n">
-        <v>64242.22274569821</v>
+        <v>64242.22274569815</v>
       </c>
       <c r="O6" t="n">
+        <v>64242.22274569813</v>
+      </c>
+      <c r="P6" t="n">
         <v>64242.22274569818</v>
-      </c>
-      <c r="P6" t="n">
-        <v>64242.22274569812</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896821</v>
+        <v>885.8132865896796</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977132</v>
+        <v>581.4550298977101</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.791318465447743e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202037</v>
+        <v>271.7582728202012</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519919</v>
+        <v>482.1622137519942</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962069</v>
+        <v>317.7411498962039</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019354</v>
+        <v>591.2532582019383</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962071</v>
+        <v>317.7411498962039</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019354</v>
+        <v>591.2532582019383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962069</v>
+        <v>317.7411498962039</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019354</v>
+        <v>591.2532582019383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>339.6944730071841</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>181.6773839518953</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>123.8416839125853</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,7 +27515,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>21.68224969841401</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>151.1501584635919</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>135.8618731585404</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>187.4310348820947</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>55.50534762821414</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,13 +27673,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862859</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545473</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27749,19 +27749,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>49.05561373791343</v>
       </c>
       <c r="V6" t="n">
-        <v>225.1700455754861</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27822,25 +27822,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>152.6925448456775</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>207.6401324459538</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508469</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>387.2945308670289</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177533</v>
+        <v>127.8724504177536</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493722</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>205.2376101142444</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>44.01848565589832</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27983,13 +27983,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>91.43416789717372</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.0251168634279</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413785</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169635</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627544</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>199.9559288295874</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>166.1951682349048</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.565642411166758e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.641133868265976e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551483</v>
+        <v>3.561058438551473</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381539</v>
+        <v>36.46968973381528</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522562</v>
+        <v>137.2877054522558</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490092</v>
+        <v>302.2403836490084</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528936</v>
+        <v>452.9799873528923</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417137</v>
+        <v>561.9617295417121</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483036</v>
+        <v>625.2907025483019</v>
       </c>
       <c r="N8" t="n">
-        <v>635.408559836838</v>
+        <v>635.4085598368363</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884917</v>
+        <v>599.99828498849</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867518</v>
+        <v>512.0846547867504</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561267</v>
+        <v>384.5542494561257</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406598</v>
+        <v>223.6923371406592</v>
       </c>
       <c r="S8" t="n">
-        <v>81.147619168492</v>
+        <v>81.14761916849177</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475913</v>
+        <v>15.58853331475908</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841186</v>
+        <v>0.2848846750841178</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079694</v>
+        <v>1.905334239079688</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953283</v>
+        <v>18.40151751953278</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234911</v>
+        <v>65.60032358234892</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474372</v>
+        <v>180.0123019474367</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657767</v>
+        <v>307.6696959657758</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247379</v>
+        <v>413.6998750247367</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913767</v>
+        <v>482.7682411913753</v>
       </c>
       <c r="N9" t="n">
-        <v>495.545680013977</v>
+        <v>495.5456800139756</v>
       </c>
       <c r="O9" t="n">
-        <v>453.327484505948</v>
+        <v>453.3274845059467</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730338</v>
+        <v>363.8352723730328</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726991</v>
+        <v>243.2142442726985</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053165</v>
+        <v>118.2978574053161</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799341</v>
+        <v>35.39074781799331</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150165</v>
+        <v>7.679834060150144</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815588</v>
+        <v>0.1253509367815585</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719099</v>
+        <v>1.597368221719094</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401163</v>
+        <v>14.20205564401159</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587982</v>
+        <v>48.03721888587968</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755403</v>
+        <v>112.93393327554</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051825</v>
+        <v>185.585144305182</v>
       </c>
       <c r="L10" t="n">
-        <v>237.485089981765</v>
+        <v>237.4850899817643</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191129</v>
+        <v>250.3947295191122</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108873</v>
+        <v>244.4409025108866</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753505</v>
+        <v>225.7807373753499</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522807</v>
+        <v>193.1944256522802</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.757806275042</v>
+        <v>133.7578062750416</v>
       </c>
       <c r="R10" t="n">
-        <v>71.823483860206</v>
+        <v>71.8234838602058</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577737</v>
+        <v>27.83777164577729</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527057</v>
+        <v>6.825118765527037</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013276</v>
+        <v>0.08712917573013251</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>485.1127032082907</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33266,10 +33266,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>548.8125296967492</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966408</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223229</v>
+        <v>121.1944791223221</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079131</v>
+        <v>232.8901363079117</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717264</v>
+        <v>326.1953145717249</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210309</v>
+        <v>394.9444693210291</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402471</v>
+        <v>405.9954962402454</v>
       </c>
       <c r="O8" t="n">
-        <v>369.900073566805</v>
+        <v>369.9000735668033</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314823</v>
+        <v>280.8516590314809</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816773</v>
+        <v>162.2485595816762</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527664</v>
+        <v>8.106799326527039</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077051</v>
+        <v>179.2657106211789</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914177</v>
+        <v>289.1757430609496</v>
       </c>
       <c r="L9" t="n">
-        <v>520.584016654809</v>
+        <v>275.1454952448626</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693583</v>
+        <v>340.634207269357</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306437</v>
+        <v>364.2039679306423</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615035</v>
+        <v>310.7312400615023</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587036</v>
+        <v>229.8608649587025</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.3097579225267</v>
+        <v>313.309757922526</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886749</v>
+        <v>19.57475315886718</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792997</v>
+        <v>163.3156524792991</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420811</v>
+        <v>265.0751152420804</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809534</v>
+        <v>289.9786064809527</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901159</v>
+        <v>288.5730748901152</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893902</v>
+        <v>250.3658652893895</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171742</v>
+        <v>190.4729849171737</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.5957630233476</v>
+        <v>47.59576302334723</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>342.5164587638463</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394655</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36914,10 +36914,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>414.838122282419</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
